--- a/US/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
@@ -1407,19 +1407,19 @@
         <v>59511</v>
       </c>
       <c r="DV2" t="n">
-        <v>56594</v>
+        <v>56579</v>
       </c>
       <c r="DW2" t="n">
-        <v>69557</v>
+        <v>69393</v>
       </c>
       <c r="DX2" t="n">
         <v>73884</v>
       </c>
       <c r="DY2" t="n">
-        <v>68827</v>
+        <v>68826</v>
       </c>
       <c r="DZ2" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>88467</v>
       </c>
       <c r="DV3" t="n">
-        <v>84894</v>
+        <v>84885</v>
       </c>
       <c r="DW3" t="n">
-        <v>101661</v>
+        <v>101524</v>
       </c>
       <c r="DX3" t="n">
-        <v>106250</v>
+        <v>106249</v>
       </c>
       <c r="DY3" t="n">
         <v>98558</v>
       </c>
       <c r="DZ3" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>77402</v>
       </c>
       <c r="DV4" t="n">
-        <v>75140</v>
+        <v>75137</v>
       </c>
       <c r="DW4" t="n">
-        <v>91269</v>
+        <v>90999</v>
       </c>
       <c r="DX4" t="n">
         <v>95685</v>
@@ -2225,7 +2225,7 @@
         <v>87207</v>
       </c>
       <c r="DZ4" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
       <c r="EA4" t="n">
         <v>0</v>
@@ -2616,19 +2616,19 @@
         <v>225380</v>
       </c>
       <c r="DV5" t="n">
-        <v>216627</v>
+        <v>216601</v>
       </c>
       <c r="DW5" t="n">
-        <v>262486</v>
+        <v>261915</v>
       </c>
       <c r="DX5" t="n">
-        <v>275819</v>
+        <v>275818</v>
       </c>
       <c r="DY5" t="n">
         <v>254592</v>
       </c>
       <c r="DZ5" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
       <c r="EA5" t="n">
         <v>0</v>

--- a/US/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
@@ -1419,10 +1419,10 @@
         <v>68826</v>
       </c>
       <c r="DZ2" t="n">
-        <v>60131</v>
+        <v>60102</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>20902</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>98558</v>
       </c>
       <c r="DZ3" t="n">
-        <v>88193</v>
+        <v>88149</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>31176</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>87207</v>
       </c>
       <c r="DZ4" t="n">
-        <v>77630</v>
+        <v>77605</v>
       </c>
       <c r="EA4" t="n">
-        <v>0</v>
+        <v>27967</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>254592</v>
       </c>
       <c r="DZ5" t="n">
-        <v>225954</v>
+        <v>225857</v>
       </c>
       <c r="EA5" t="n">
-        <v>0</v>
+        <v>80045</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
